--- a/[2분반] 아두보트_마이크로프로세서 및 실습_재료구매신청서.xlsx
+++ b/[2분반] 아두보트_마이크로프로세서 및 실습_재료구매신청서.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>2분반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gameplusedu.com/shop/goods/goods_view.php?goodsno=584&amp;category=003016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.gameplusedu.com/shop/goods/goods_view.php?goodsno=801&amp;category=010020006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 servo motor
 </t>
@@ -127,13 +119,6 @@
   <si>
     <t xml:space="preserve">
 9v Battery holder with DC Jack
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-X5C-02 Main Baldes - Quadcopter
-(k300,k500용 프로펠러) PropsPropellers
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,38 +152,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">재료보유현황 표에서 3번
-L293D 아두이노 모터 제어 쉴드
-를 받을수 있으면 받고싶습니다.
+    <t>2013136141 , 2015136068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승현 , 신현아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPXGUPL8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교님께 받앋습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+X5C전용 프로펠러
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">재료보유현황 표에서 9번
-9g 미니 서보 모터 SG-90
-를 받을수 있으면 받고싶습니다.
+    <t>http://www.eleparts.co.kr/EPXGDFRT</t>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPX68J6Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[듀라셀] 6LR61G-9V(벌크)
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013136141 , 2015136068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍승현 , 신현아</t>
+    <t>다른 제품이여도 상관없습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +249,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,9 +372,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,17 +387,47 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -520,13 +563,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291913</xdr:colOff>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2196352</xdr:colOff>
+      <xdr:colOff>2364441</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1192706</xdr:rowOff>
     </xdr:to>
@@ -550,8 +593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10321178" y="2644588"/>
-          <a:ext cx="1904439" cy="1091853"/>
+          <a:off x="10118912" y="3899647"/>
+          <a:ext cx="2274794" cy="1091853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,7 +707,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10107707" y="7328647"/>
+          <a:off x="10107707" y="8796617"/>
           <a:ext cx="2342029" cy="1042147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -742,6 +785,44 @@
         <a:xfrm>
           <a:off x="10096501" y="1450497"/>
           <a:ext cx="2330823" cy="1266751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2039469</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1008529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544735" y="11122189"/>
+          <a:ext cx="1523999" cy="912928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -829,6 +910,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -864,6 +962,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1035,64 +1150,64 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1121,134 +1236,133 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
         <v>4900</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4900</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9800</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
         <v>35000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>35000</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14">
+        <v>22000</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
-        <v>22000</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="G9" s="13"/>
+      <c r="H9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4400</v>
+      </c>
+      <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
-        <f t="shared" ref="E9" si="0">C9*D9</f>
-        <v>22000</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="16" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4400</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ref="E10" si="1">MMULT(C10,D10)</f>
-        <v>4400</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>1400</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <f>MMULT(C11,D11)</f>
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4500</v>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6220</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
-        <v>4500</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
+      <c r="E12" s="9">
+        <v>6220</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1256,20 +1370,20 @@
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9">
         <v>19800</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>19800</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1277,54 +1391,57 @@
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9">
         <v>32000</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>32000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1900</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9">
+        <v>5700</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11">
+        <f>SUM(E7:E15)</f>
+        <v>111320</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12">
-        <f>SUM(E7:E16)</f>
-        <v>124000</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1336,14 +1453,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F10" r:id="rId2"/>
-    <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F8" r:id="rId4" display="http://www.eleparts.co.kr/EPXC3UXB_x000a__x000a__x000a__x000a_"/>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3" display="http://www.eleparts.co.kr/EPXC3UXB_x000a__x000a__x000a__x000a_"/>
+    <hyperlink ref="F13" r:id="rId4"/>
     <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>